--- a/6044_FramPat/SAM/Project #1/Robotron 2084/Sprite map/sprite - mommy.xlsx
+++ b/6044_FramPat/SAM/Project #1/Robotron 2084/Sprite map/sprite - mommy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="32">
   <si>
     <t>B</t>
   </si>
@@ -309,7 +309,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -355,7 +355,7 @@
         <xdr:cNvPr id="1028" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -401,7 +401,7 @@
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -447,7 +447,7 @@
         <xdr:cNvPr id="3" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -493,7 +493,7 @@
         <xdr:cNvPr id="4" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="5" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,7 +585,7 @@
         <xdr:cNvPr id="6" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -631,7 +631,7 @@
         <xdr:cNvPr id="7" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -677,7 +677,7 @@
         <xdr:cNvPr id="8" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -723,7 +723,7 @@
         <xdr:cNvPr id="1044" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +769,7 @@
         <xdr:cNvPr id="1046" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="1048" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -841,6 +841,210 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>102248</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>181835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>115387</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8451118" y="10568226"/>
+          <a:ext cx="1404617" cy="2378428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>111539</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4704522" y="10171043"/>
+          <a:ext cx="3159539" cy="3110396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>102248</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7669696" y="11757440"/>
+          <a:ext cx="781422" cy="451125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>11044</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1540565" y="13550348"/>
+          <a:ext cx="8409609" cy="607391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>At the beginning of this: https://www.youtube.com/watch?v=l800GL6NQPY&amp;t=435s&amp;ab_channel=OldClassicRetroGaming the progs seem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> to be one of the "poses" of the model where the colours flash. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1131,15 +1335,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CF54"/>
+  <dimension ref="A1:CF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BB39" sqref="BB39:BH52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="92" width="2.85546875" customWidth="1"/>
+    <col min="1" max="92" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -5754,6 +5958,750 @@
         <v>31</v>
       </c>
     </row>
+    <row r="57" spans="1:64">
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1">
+        <v>2</v>
+      </c>
+      <c r="O57" s="1">
+        <v>3</v>
+      </c>
+      <c r="P57" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>5</v>
+      </c>
+      <c r="R57" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:64">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:64">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:64">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:64">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:64">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:64">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:64">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>8</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>9</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>10</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>11</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <v>12</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>13</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5767,7 +6715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5779,7 +6727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
